--- a/Lab 1.3/Requirements Stakeholder Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Stakeholder Traceability Matrix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quang Duong\UIT\Third year\First semester\Requirement Engineering\SE357-Pratice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4627B81-2B92-473F-85DF-55BBEAD833F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B881D63E-0CAC-401A-BB8F-6845E23B44B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -103,7 +103,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -112,6 +112,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -392,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -443,10 +447,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -457,34 +461,34 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>4.0999999999999996</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
-        <v>4.2</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
-        <v>4.3</v>
+        <v>5.2</v>
       </c>
       <c r="B8" s="3">
         <v>3</v>
@@ -495,32 +499,32 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
-        <v>5.0999999999999996</v>
+        <v>6</v>
       </c>
       <c r="B10" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
-        <v>5.2</v>
+        <v>6.1</v>
       </c>
       <c r="B11" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
@@ -528,18 +532,18 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
-        <v>5.3</v>
+        <v>6.2</v>
       </c>
       <c r="B12" s="3">
         <v>4</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
-        <v>6</v>
+        <v>6.3</v>
       </c>
       <c r="B13" s="3">
         <v>4</v>
@@ -553,7 +557,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>4</v>
@@ -564,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>4</v>
@@ -578,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -589,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -597,10 +601,54 @@
         <v>11</v>
       </c>
       <c r="B18" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>12</v>
+      </c>
+      <c r="B19" s="3">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>13</v>
+      </c>
+      <c r="B20" s="4">
+        <v>4</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>14</v>
+      </c>
+      <c r="B21" s="4">
+        <v>4</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>15</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Lab 1.3/Requirements Stakeholder Traceability Matrix.xlsx
+++ b/Lab 1.3/Requirements Stakeholder Traceability Matrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Quang Duong\UIT\Third year\First semester\Requirement Engineering\SE357-Pratice-class\Lab 1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B881D63E-0CAC-401A-BB8F-6845E23B44B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E3DD4E-0240-4328-AD62-5D54F4713808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
   <si>
     <t>Requirement ID</t>
   </si>
@@ -396,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -619,36 +619,58 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>13</v>
       </c>
-      <c r="B20" s="4">
-        <v>4</v>
-      </c>
-      <c r="C20" s="5" t="s">
+      <c r="B20" s="3">
+        <v>4</v>
+      </c>
+      <c r="C20" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4">
+      <c r="A21" s="3">
         <v>14</v>
       </c>
-      <c r="B21" s="4">
-        <v>4</v>
-      </c>
-      <c r="C21" s="5" t="s">
+      <c r="B21" s="3">
+        <v>4</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="3">
         <v>15</v>
       </c>
-      <c r="B22" s="4">
-        <v>4</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>3</v>
+      <c r="B22" s="3">
+        <v>4</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>16</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>17</v>
+      </c>
+      <c r="B24" s="4">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
